--- a/documents/外部設計書_ログイン.xlsx
+++ b/documents/外部設計書_ログイン.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAF978F-36A1-4FB1-ACD5-95E78955DCC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E6A75C-62E1-49FF-A5D2-C56E80337253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -228,13 +228,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>「６. 新規登録」ボタンをクリックする</t>
-    <rPh sb="4" eb="8">
-      <t>シンキトウロク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>title</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -313,6 +306,16 @@
   </si>
   <si>
     <t>Label</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「６. 新規作成」ボタンをクリックする</t>
+    <rPh sb="4" eb="6">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1659,8 +1662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L82" sqref="L82"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1687,7 +1690,7 @@
       <c r="L1" s="32"/>
       <c r="M1" s="32"/>
       <c r="N1" s="33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O1" s="33"/>
       <c r="P1" s="33"/>
@@ -1737,7 +1740,7 @@
       <c r="L2" s="42"/>
       <c r="M2" s="42"/>
       <c r="N2" s="43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O2" s="43"/>
       <c r="P2" s="43"/>
@@ -3899,7 +3902,7 @@
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="21" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="F54" s="21"/>
       <c r="G54" s="21"/>
@@ -4976,19 +4979,19 @@
         <v>1</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
       <c r="H79" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
       <c r="L79" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
@@ -5026,19 +5029,19 @@
         <v>2</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
       <c r="L80" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
@@ -5076,19 +5079,19 @@
         <v>3</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
       <c r="L81" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
@@ -5126,19 +5129,19 @@
         <v>4</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
       <c r="H82" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
       <c r="L82" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
@@ -5176,19 +5179,19 @@
         <v>5</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
       <c r="H83" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
       <c r="L83" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
@@ -5226,19 +5229,19 @@
         <v>6</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="15"/>
       <c r="H84" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
       <c r="L84" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
